--- a/Assets/Editor/JsonUtility/JsonUtility/Stage2/2-1.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Stage2/2-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uisoo/Documents/GitHub/Project-Caterpillar/Assets/Editor/JsonUtility/JsonUtility/Stage2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Stage2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C469FB5C-F9D4-FA4D-B3F3-5B3C61976418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAD8561-0B8A-4AB8-8F50-AA38902F3D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15640" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!Sample" sheetId="1" r:id="rId1"/>
@@ -2285,7 +2285,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="125">
   <si>
     <t>파일명</t>
   </si>
@@ -2339,9 +2339,6 @@
   </si>
   <si>
     <t>option</t>
-  </si>
-  <si>
-    <t>Left, Appear</t>
   </si>
   <si>
     <t>···.</t>
@@ -2432,6 +2429,8 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="A고딕12"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>···</t>
     </r>
@@ -2530,6 +2529,8 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="A고딕12"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>···</t>
     </r>
@@ -2601,6 +2602,8 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="A고딕12"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>···</t>
     </r>
@@ -2639,6 +2642,8 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="A고딕12"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>···</t>
     </r>
@@ -2655,158 +2660,6 @@
   </si>
   <si>
     <t>(스테이지 필드) : 아이가 스테이지 필드 내 이동이 가능해진다.</t>
-  </si>
-  <si>
-    <r>
-      <t>···&lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>잘 곳을 찾아보자&lt;b/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>나는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="A고딕12"/>
-      </rPr>
-      <t xml:space="preserve">··· </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>나는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="A고딕12"/>
-      </rPr>
-      <t>··· &lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이런 데&lt;b/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>에서는 안 살아.</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>’밖의 아이’라는 건</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="A고딕12"/>
-      </rPr>
-      <t>··· &lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>밖에서 온 아이&lt;b/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>를 말하는 거야!</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>···</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>그냥 단순 &lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>‘밖의 아이’&lt;b/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>잖아.</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2-1, 입구</t>
@@ -2856,6 +2709,8 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="A고딕12"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>···</t>
     </r>
@@ -2882,6 +2737,8 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="A고딕12"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>···</t>
     </r>
@@ -2911,6 +2768,8 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="A고딕12"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>···</t>
     </r>
@@ -2929,36 +2788,11 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="A고딕12"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>.)</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>이 곳은 &lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>‘정어리 패거리’&lt;b/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>의 보금자리와 가까운 골목이거든.</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2969,6 +2803,8 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="A고딕12"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>···.</t>
     </r>
@@ -3033,6 +2869,8 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="A고딕12"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>···</t>
     </r>
@@ -3102,6 +2940,8 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="A고딕12"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">···, </t>
     </r>
@@ -3120,6 +2960,8 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="A고딕12"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>···</t>
     </r>
@@ -3149,6 +2991,8 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="A고딕12"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>···</t>
     </r>
@@ -3167,6 +3011,8 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="A고딕12"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>···.)</t>
     </r>
@@ -3180,6 +3026,8 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="A고딕12"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>···</t>
     </r>
@@ -3198,6 +3046,8 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="A고딕12"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>···</t>
     </r>
@@ -3216,6 +3066,8 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="A고딕12"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>···.)</t>
     </r>
@@ -3251,32 +3103,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">열쇠 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>&lt;융통&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>를 획득하였다.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>(내가 이곳에 계속 있을 것도 아닌데 그냥</t>
     </r>
     <r>
@@ -3284,6 +3110,8 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="A고딕12"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>···)</t>
     </r>
@@ -3339,6 +3167,8 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="A고딕12"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">···. </t>
     </r>
@@ -3387,7 +3217,239 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Hold, -1</t>
+    <t>FadeOut</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Hold, -1, name=Stage 2/2-1/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아이 눞기</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>열쇠 &lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>&lt;융통&gt;&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를 획득하였다.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>···&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>잘 곳을 찾아보자&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>나는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="A고딕12"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">··· </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>나는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="A고딕12"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>··· &lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이런 데&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에서는 안 살아.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>’밖의 아이’라는 건</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="A고딕12"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>··· &lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>밖에서 온 아이&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를 말하는 거야!</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>···</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그냥 단순 &lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>‘밖의 아이’&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>잖아.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>이 곳은 &lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>‘정어리 패거리’&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의 보금자리와 가까운 골목이거든.</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3395,7 +3457,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3455,6 +3517,8 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="A고딕12"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3463,6 +3527,13 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="굴림"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3518,7 +3589,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3562,6 +3633,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3786,9 +3860,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="8.83203125" customWidth="1"/>
+    <col min="1" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
@@ -4868,19 +4942,19 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
     <col min="2" max="2" width="89" customWidth="1"/>
     <col min="3" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
-    <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="7" max="26" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P1" s="2"/>
     </row>
@@ -4946,28 +5020,24 @@
     </row>
     <row r="5" spans="1:16" ht="16.5" customHeight="1">
       <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="3">
-        <v>4</v>
-      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:16" ht="16.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -4979,7 +5049,7 @@
     <row r="7" spans="1:16" ht="16.5" customHeight="1">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="7">
         <v>2</v>
@@ -4987,15 +5057,15 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="16.5" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -5007,7 +5077,7 @@
     <row r="9" spans="1:16" ht="16.5" customHeight="1">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="7">
         <v>2</v>
@@ -5015,15 +5085,15 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="16.5" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
@@ -5044,10 +5114,10 @@
     </row>
     <row r="12" spans="1:16" ht="16.5" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -5065,13 +5135,13 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="16.5" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="3">
         <v>7</v>
@@ -6190,23 +6260,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A25" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
     <col min="2" max="2" width="89" customWidth="1"/>
     <col min="3" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
-    <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="7" max="26" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P1" s="2"/>
     </row>
@@ -6272,10 +6342,10 @@
     </row>
     <row r="5" spans="1:16" ht="16.5" customHeight="1">
       <c r="A5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -6286,10 +6356,10 @@
     </row>
     <row r="6" spans="1:16" ht="16.5" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -6300,10 +6370,10 @@
     </row>
     <row r="7" spans="1:16" ht="16.5" customHeight="1">
       <c r="A7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -6314,10 +6384,10 @@
     </row>
     <row r="8" spans="1:16" ht="16.5" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -6328,10 +6398,10 @@
     </row>
     <row r="9" spans="1:16" ht="16.5" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -6342,10 +6412,10 @@
     </row>
     <row r="10" spans="1:16" ht="16.5" customHeight="1">
       <c r="A10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
@@ -6356,10 +6426,10 @@
     </row>
     <row r="11" spans="1:16" ht="16.5" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
@@ -6370,10 +6440,10 @@
     </row>
     <row r="12" spans="1:16" ht="16.5" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -6384,10 +6454,10 @@
     </row>
     <row r="13" spans="1:16" ht="16.5" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="6">
         <v>1</v>
@@ -6398,10 +6468,10 @@
     </row>
     <row r="14" spans="1:16" ht="16.5" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="6">
         <v>1</v>
@@ -6412,10 +6482,10 @@
     </row>
     <row r="15" spans="1:16" ht="16.5" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
@@ -6426,10 +6496,10 @@
     </row>
     <row r="16" spans="1:16" ht="16.5" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="6">
         <v>1</v>
@@ -6440,10 +6510,10 @@
     </row>
     <row r="17" spans="1:6" ht="16.5" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="C17" s="6">
         <v>1</v>
@@ -6454,10 +6524,10 @@
     </row>
     <row r="18" spans="1:6" ht="16.5" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="6">
         <v>1</v>
@@ -6468,10 +6538,10 @@
     </row>
     <row r="19" spans="1:6" ht="16.5" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="6">
         <v>1</v>
@@ -6482,10 +6552,10 @@
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="6">
         <v>1</v>
@@ -6496,10 +6566,10 @@
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -6510,10 +6580,10 @@
     </row>
     <row r="22" spans="1:6" ht="16.5" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="6">
         <v>1</v>
@@ -6524,10 +6594,10 @@
     </row>
     <row r="23" spans="1:6" ht="16.5" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" s="6">
         <v>1</v>
@@ -6538,10 +6608,10 @@
     </row>
     <row r="24" spans="1:6" ht="16.5" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" s="6">
         <v>1</v>
@@ -6552,10 +6622,10 @@
     </row>
     <row r="25" spans="1:6" ht="16.5" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" s="6">
         <v>1</v>
@@ -6566,10 +6636,10 @@
     </row>
     <row r="26" spans="1:6" ht="16.5" customHeight="1">
       <c r="A26" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" s="6">
         <v>1</v>
@@ -6580,10 +6650,10 @@
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1">
       <c r="A27" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" s="6">
         <v>1</v>
@@ -6594,10 +6664,10 @@
     </row>
     <row r="28" spans="1:6" ht="16.5" customHeight="1">
       <c r="A28" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="C28" s="6">
         <v>1</v>
@@ -6608,10 +6678,10 @@
     </row>
     <row r="29" spans="1:6" ht="16.5" customHeight="1">
       <c r="A29" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" s="6">
         <v>1</v>
@@ -6622,10 +6692,10 @@
     </row>
     <row r="30" spans="1:6" ht="16.5" customHeight="1">
       <c r="A30" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C30" s="6">
         <v>1</v>
@@ -6636,10 +6706,10 @@
     </row>
     <row r="31" spans="1:6" ht="16.5" customHeight="1">
       <c r="A31" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -6650,10 +6720,10 @@
     </row>
     <row r="32" spans="1:6" ht="16.5" customHeight="1">
       <c r="A32" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="6">
         <v>1</v>
@@ -6664,10 +6734,10 @@
     </row>
     <row r="33" spans="1:26" ht="16.5" customHeight="1">
       <c r="A33" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" s="6">
         <v>1</v>
@@ -6678,10 +6748,10 @@
     </row>
     <row r="34" spans="1:26" ht="16.5" customHeight="1">
       <c r="A34" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C34" s="6">
         <v>1</v>
@@ -6692,10 +6762,10 @@
     </row>
     <row r="35" spans="1:26" ht="16.5" customHeight="1">
       <c r="A35" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C35" s="6">
         <v>1</v>
@@ -6706,10 +6776,10 @@
     </row>
     <row r="36" spans="1:26" ht="16.5" customHeight="1">
       <c r="A36" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C36" s="6">
         <v>1</v>
@@ -6721,7 +6791,7 @@
     <row r="37" spans="1:26" ht="16.5" customHeight="1">
       <c r="A37" s="6"/>
       <c r="B37" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C37" s="6">
         <v>1</v>
@@ -6729,10 +6799,10 @@
     </row>
     <row r="38" spans="1:26" ht="16.5" customHeight="1">
       <c r="A38" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C38" s="6">
         <v>1</v>
@@ -6740,10 +6810,10 @@
     </row>
     <row r="39" spans="1:26" ht="16.5" customHeight="1">
       <c r="A39" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C39" s="6">
         <v>1</v>
@@ -6751,10 +6821,10 @@
     </row>
     <row r="40" spans="1:26" ht="16.5" customHeight="1">
       <c r="A40" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C40" s="6">
         <v>1</v>
@@ -6762,10 +6832,10 @@
     </row>
     <row r="41" spans="1:26" ht="16.5" customHeight="1">
       <c r="A41" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C41" s="6">
         <v>1</v>
@@ -6773,10 +6843,10 @@
     </row>
     <row r="42" spans="1:26" ht="16.5" customHeight="1">
       <c r="A42" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C42" s="6">
         <v>1</v>
@@ -6807,10 +6877,10 @@
     </row>
     <row r="43" spans="1:26" ht="16.5" customHeight="1">
       <c r="A43" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C43" s="6">
         <v>1</v>
@@ -6841,10 +6911,10 @@
     </row>
     <row r="44" spans="1:26" ht="16.5" customHeight="1">
       <c r="A44" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="C44" s="6">
         <v>1</v>
@@ -6853,14 +6923,14 @@
     <row r="45" spans="1:26" ht="16.5" customHeight="1">
       <c r="A45" s="6"/>
       <c r="B45" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C45" s="6">
         <v>11</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="16.5" customHeight="1">
@@ -7873,22 +7943,22 @@
   <dimension ref="A1:F999"/>
   <sheetViews>
     <sheetView zoomScale="161" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.5" customWidth="1"/>
-    <col min="2" max="2" width="59.1640625" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="59.140625" customWidth="1"/>
     <col min="3" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
-    <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="7" max="26" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1">
@@ -7953,10 +8023,10 @@
     </row>
     <row r="5" spans="1:6" ht="16.5" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -7966,10 +8036,10 @@
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -7979,13 +8049,13 @@
     <row r="7" spans="1:6" ht="16.5" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C7" s="1">
         <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1"/>
@@ -8993,23 +9063,23 @@
   <dimension ref="A1:F999"/>
   <sheetViews>
     <sheetView zoomScale="156" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.5" customWidth="1"/>
-    <col min="2" max="2" width="65.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="65.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -9079,10 +9149,10 @@
     </row>
     <row r="5" spans="1:6" ht="16.5" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -9092,10 +9162,10 @@
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -9104,10 +9174,10 @@
     </row>
     <row r="7" spans="1:6" ht="16.5" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -9116,10 +9186,10 @@
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -9128,10 +9198,10 @@
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -9139,10 +9209,10 @@
     </row>
     <row r="10" spans="1:6" ht="16.5" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -9154,7 +9224,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" customHeight="1"/>
@@ -10161,20 +10231,20 @@
       <selection activeCell="B9" sqref="A1:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18">
+    <row r="1" spans="1:6" ht="33">
       <c r="A1" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -10244,10 +10314,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -10257,10 +10327,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -10268,10 +10338,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -10280,10 +10350,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -10294,7 +10364,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" customHeight="1"/>
@@ -11300,15 +11370,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046BEB0F-6EDA-EB4F-85EF-673DA675ACFC}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="18">
+    <row r="1" spans="1:6" ht="16.5">
       <c r="A1" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -11378,10 +11448,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -11392,7 +11462,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -11410,19 +11480,19 @@
       <selection activeCell="A2" sqref="A2:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18">
+    <row r="1" spans="1:6" ht="33">
       <c r="A1" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -11492,10 +11562,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -11506,10 +11576,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -11520,7 +11590,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -11532,25 +11602,25 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94757CC8-9B59-A944-84D3-7F5A46A816D0}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A10" zoomScale="118" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="68" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -11615,10 +11685,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -11629,10 +11699,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -11640,10 +11710,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -11652,10 +11722,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -11663,10 +11733,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -11675,7 +11745,7 @@
     <row r="10" spans="1:6">
       <c r="A10" s="11"/>
       <c r="B10" s="11" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C10" s="12">
         <v>2</v>
@@ -11683,15 +11753,15 @@
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="14" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C11" s="12">
         <v>1</v>
@@ -11703,7 +11773,7 @@
     <row r="12" spans="1:6">
       <c r="A12" s="11"/>
       <c r="B12" s="11" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C12" s="11">
         <v>2</v>
@@ -11711,15 +11781,15 @@
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="14" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="C13" s="11">
         <v>1</v>
@@ -11740,10 +11810,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -11751,10 +11821,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -11762,10 +11832,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -11773,10 +11843,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -11784,10 +11854,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -11795,10 +11865,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -11806,10 +11876,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -11817,10 +11887,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -11828,10 +11898,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -11839,10 +11909,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -11850,10 +11920,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -11861,10 +11931,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -11873,21 +11943,21 @@
     <row r="27" spans="1:6">
       <c r="A27" s="6"/>
       <c r="B27" s="6" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C27">
         <v>6</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -11895,10 +11965,10 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -11906,10 +11976,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -11917,10 +11987,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -11928,10 +11998,10 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -11939,10 +12009,10 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -11955,19 +12025,27 @@
         <v>11</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="6"/>
       <c r="B35" s="6" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C35">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="B36" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
